--- a/PCB Source project/Mentor Pads/BOM/智能车主板.xlsx
+++ b/PCB Source project/Mentor Pads/BOM/智能车主板.xlsx
@@ -17,28 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>参考编号</t>
-  </si>
-  <si>
-    <t>元件名称</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>封装</t>
-  </si>
-  <si>
-    <t>制造商</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="118">
   <si>
     <t>B1</t>
   </si>
@@ -46,31 +25,37 @@
     <t>BEEP,无源</t>
   </si>
   <si>
+    <t>BEEP-5_9_5.5</t>
+  </si>
+  <si>
     <t>蜂鸣器</t>
   </si>
   <si>
-    <t>BEEP-5_9_5.5</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
     <t>C-SMD,0.1nF</t>
   </si>
   <si>
+    <t>C0603_L</t>
+  </si>
+  <si>
     <t>贴片电容</t>
   </si>
   <si>
-    <t>C0603_L</t>
-  </si>
-  <si>
-    <t>C1 C5-6 C9-10 C12 C14 C18 C20-21 C23-25 C27</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C5-6 C9-10 C12 C14 C18 C20-21 C23-25 C27</t>
   </si>
   <si>
     <t>C-SMD,100nF</t>
   </si>
   <si>
-    <t>C3</t>
+    <t xml:space="preserve">                    13</t>
+  </si>
+  <si>
+    <t>C3 C16</t>
   </si>
   <si>
     <t>C-SMD,10nF</t>
@@ -82,10 +67,10 @@
     <t>C-SMD,10uF</t>
   </si>
   <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C-SMD,1nF</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C-SMD,47nF</t>
   </si>
   <si>
     <t>C22</t>
@@ -94,12 +79,12 @@
     <t>CS_SMD,470nF</t>
   </si>
   <si>
+    <t>CS-6_4-R</t>
+  </si>
+  <si>
     <t>贴片固态电容</t>
   </si>
   <si>
-    <t>CS-10_13-R</t>
-  </si>
-  <si>
     <t>C19</t>
   </si>
   <si>
@@ -124,12 +109,12 @@
     <t>CT,10uF</t>
   </si>
   <si>
+    <t>C_2012</t>
+  </si>
+  <si>
     <t>贴片钽电容</t>
   </si>
   <si>
-    <t>C_2012</t>
-  </si>
-  <si>
     <t>CZ1</t>
   </si>
   <si>
@@ -154,22 +139,19 @@
     <t>HDR-2X4P</t>
   </si>
   <si>
+    <t>HDR2.54-2X4P-LI</t>
+  </si>
+  <si>
     <t>2*4排针/排母</t>
   </si>
   <si>
-    <t>HDR2.54-2X4P-LI</t>
-  </si>
-  <si>
     <t>J7</t>
   </si>
   <si>
-    <t>HDR-8P</t>
-  </si>
-  <si>
-    <t>8P排针排母</t>
-  </si>
-  <si>
-    <t>HDR2.54-8P-M-LI</t>
+    <t>HDR-2X8P</t>
+  </si>
+  <si>
+    <t>HDR2.54-2X8P-LI</t>
   </si>
   <si>
     <t>J2-3 J5-6</t>
@@ -178,48 +160,48 @@
     <t>IDC-6P</t>
   </si>
   <si>
+    <t>IDC2.54-6P-LI</t>
+  </si>
+  <si>
     <t>2*3P IDC接插件</t>
   </si>
   <si>
-    <t>IDC2.54-6P-LI</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
     <t>IRLR7843TRPBF</t>
   </si>
   <si>
+    <t>TO252</t>
+  </si>
+  <si>
     <t>N沟场效应管</t>
   </si>
   <si>
-    <t>TO220A</t>
-  </si>
-  <si>
     <t>L1-2</t>
   </si>
   <si>
-    <t>L-CDRH,6.8uH</t>
+    <t>L-CDRH,4.7uH</t>
+  </si>
+  <si>
+    <t>CDRH73</t>
   </si>
   <si>
     <t>功率屏蔽电感</t>
   </si>
   <si>
-    <t>CDRH124</t>
-  </si>
-  <si>
     <t>D1-5</t>
   </si>
   <si>
     <t>LED_SMD,none</t>
   </si>
   <si>
+    <t>LED-0603_B</t>
+  </si>
+  <si>
     <t>贴片发光二极管</t>
   </si>
   <si>
-    <t>LED-0603_B</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -235,25 +217,31 @@
     <t>PH2.0-3P</t>
   </si>
   <si>
+    <t>PH2.0-3P-LI</t>
+  </si>
+  <si>
     <t>PH2.0接插件</t>
   </si>
   <si>
-    <t>PH2.0-3P-LI</t>
-  </si>
-  <si>
-    <t>R13</t>
+    <t>R13 R16</t>
   </si>
   <si>
     <t>R-SMD,100K</t>
   </si>
   <si>
+    <t>R0603_L</t>
+  </si>
+  <si>
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R0603_L</t>
-  </si>
-  <si>
-    <t>R1-10 R14 R16-21 R24</t>
+    <t>R8 R27</t>
+  </si>
+  <si>
+    <t>R-SMD,100R</t>
+  </si>
+  <si>
+    <t>R1-7 R9-10 R17-22 R24-26</t>
   </si>
   <si>
     <t>R-SMD,10K</t>
@@ -265,7 +253,7 @@
     <t>R-SMD,110K</t>
   </si>
   <si>
-    <t>R11</t>
+    <t>R11 R14</t>
   </si>
   <si>
     <t>R-SMD,15K</t>
@@ -277,94 +265,88 @@
     <t>R-SMD,1K</t>
   </si>
   <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R-SMD,4.7K</t>
-  </si>
-  <si>
     <t>R15</t>
   </si>
   <si>
     <t>RP-SMD,200K</t>
   </si>
   <si>
+    <t>3362P</t>
+  </si>
+  <si>
     <t>贴片电位器</t>
   </si>
   <si>
-    <t>3362P</t>
-  </si>
-  <si>
     <t>U3-4 U6</t>
   </si>
   <si>
     <t>RT9080-33GB</t>
   </si>
   <si>
-    <t>输出类型:固定;输出极性:正;最大输入电压:5.5V;输出电压:3.3V;输出电流:500mA;电源纹波抑制比(PSRR):50dB@(10kHz);</t>
-  </si>
-  <si>
     <t>SOT23-5L</t>
   </si>
   <si>
+    <t>LDO线性稳压器</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
     <t>SS8050</t>
   </si>
   <si>
+    <t>SOT23-3N</t>
+  </si>
+  <si>
     <t>高频放大-NPN型</t>
   </si>
   <si>
-    <t>SOT23-3N</t>
-  </si>
-  <si>
     <t>S6</t>
   </si>
   <si>
     <t>SSW-1P</t>
   </si>
   <si>
+    <t>SS-12F23</t>
+  </si>
+  <si>
     <t>1路波动开关</t>
   </si>
   <si>
-    <t>SS-12D10</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
     <t>SW-2P</t>
   </si>
   <si>
+    <t>SW2.54-2P-LI_R</t>
+  </si>
+  <si>
     <t>2路编码开关</t>
   </si>
   <si>
-    <t>SW2.54-2P-LI_R</t>
+    <t>U2 U5</t>
+  </si>
+  <si>
+    <t>SY8303AIC</t>
+  </si>
+  <si>
+    <t>SOT23-8</t>
+  </si>
+  <si>
+    <t>同步DCDC降压芯片</t>
   </si>
   <si>
     <t>S2-5</t>
   </si>
   <si>
-    <t>SW-PB</t>
-  </si>
-  <si>
-    <t>微动开关</t>
+    <t>TSW_2P</t>
   </si>
   <si>
     <t>SW-3_6_2.5-LS</t>
   </si>
   <si>
-    <t>U2 U5</t>
-  </si>
-  <si>
-    <t>SY8303AIC</t>
-  </si>
-  <si>
-    <t>同步DCDC降压芯片</t>
-  </si>
-  <si>
-    <t>SOT23-8</t>
+    <t>3x6轻触开关</t>
   </si>
   <si>
     <t>XH1</t>
@@ -373,22 +355,22 @@
     <t>XH2.54-6P</t>
   </si>
   <si>
+    <t>XH2.54-6P-WI</t>
+  </si>
+  <si>
     <t>XH 2.54-6P接插件</t>
   </si>
   <si>
-    <t>XH2.54-6P-LI</t>
-  </si>
-  <si>
     <t>XT1</t>
   </si>
   <si>
     <t>XT60PW-M</t>
   </si>
   <si>
+    <t>XT60PWM</t>
+  </si>
+  <si>
     <t>锂电池连接器</t>
-  </si>
-  <si>
-    <t>XT60PWM</t>
   </si>
 </sst>
 </file>
@@ -1012,17 +994,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,17 +1538,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.90909090909091" customWidth="1"/>
-    <col min="2" max="2" width="26.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="2" max="2" width="36.1181818181818" customWidth="1"/>
+    <col min="3" max="3" width="20.7" customWidth="1"/>
     <col min="4" max="4" width="22.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="17.7272727272727" customWidth="1"/>
     <col min="6" max="6" width="28.9" customWidth="1"/>
@@ -1569,773 +1557,722 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
-      <c r="A29" s="1">
-        <v>6</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
         <v>35</v>
       </c>
-      <c r="G34" t="s">
+      <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>16</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>17</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>18</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>19</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>22</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>25</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>26</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>27</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>28</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>29</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>30</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>31</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>32</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>33</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>34</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="B36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G57" t="s">
+      <c r="C36" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>35</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F36" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="F58" t="s">
-        <v>118</v>
-      </c>
-      <c r="G58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>36</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G59" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/PCB Source project/Mentor Pads/BOM/智能车主板.xlsx
+++ b/PCB Source project/Mentor Pads/BOM/智能车主板.xlsx
@@ -22,7 +22,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>BEEP,无源</t>
+    <t>BEEP,有源</t>
   </si>
   <si>
     <t>BEEP-5_9_5.5</t>
@@ -31,7 +31,7 @@
     <t>蜂鸣器</t>
   </si>
   <si>
-    <t>C8</t>
+    <t>C5</t>
   </si>
   <si>
     <t>C-SMD,0.1nF</t>
@@ -46,13 +46,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>C5-6 C9-10 C12 C14 C18 C20-21 C23-25 C27</t>
+    <t>C4 C6-10 C13-14 C17 C24-26 C28</t>
   </si>
   <si>
     <t>C-SMD,100nF</t>
   </si>
   <si>
-    <t xml:space="preserve">                    13</t>
+    <t>13</t>
   </si>
   <si>
     <t>C3 C16</t>
@@ -61,49 +61,49 @@
     <t>C-SMD,10nF</t>
   </si>
   <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C-SMD,10uF</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C-SMD,47nF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CS_SMD,470nF</t>
+  </si>
+  <si>
+    <t>CS-6_4-R</t>
+  </si>
+  <si>
+    <t>贴片固态电容</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CS_SMD,470uF</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>C-SMD,10uF</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C-SMD,47nF</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>CS_SMD,470nF</t>
-  </si>
-  <si>
-    <t>CS-6_4-R</t>
-  </si>
-  <si>
-    <t>贴片固态电容</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>CS_SMD,470uF</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>CS_SMD,47nF</t>
   </si>
   <si>
-    <t>C4</t>
+    <t>C12</t>
   </si>
   <si>
     <t>CS_SMD,47uF</t>
   </si>
   <si>
-    <t>C11 C13 C15 C17 C26 C28</t>
+    <t>C18-23</t>
   </si>
   <si>
     <t>CT,10uF</t>
@@ -124,7 +124,7 @@
     <t>CZ-5.08-L-Z-2P</t>
   </si>
   <si>
-    <t>J1 J4</t>
+    <t>J4 J6</t>
   </si>
   <si>
     <t>FPC0.5-16P</t>
@@ -133,7 +133,7 @@
     <t>FPC0.5-SMD</t>
   </si>
   <si>
-    <t>J8</t>
+    <t>J1</t>
   </si>
   <si>
     <t>HDR-2X4P</t>
@@ -145,7 +145,7 @@
     <t>2*4排针/排母</t>
   </si>
   <si>
-    <t>J7</t>
+    <t>J5</t>
   </si>
   <si>
     <t>HDR-2X8P</t>
@@ -154,7 +154,19 @@
     <t>HDR2.54-2X8P-LI</t>
   </si>
   <si>
-    <t>J2-3 J5-6</t>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>HY19P03</t>
+  </si>
+  <si>
+    <t>TO252</t>
+  </si>
+  <si>
+    <t>P沟场效应管</t>
+  </si>
+  <si>
+    <t>J2-3 J7-8</t>
   </si>
   <si>
     <t>IDC-6P</t>
@@ -166,18 +178,6 @@
     <t>2*3P IDC接插件</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>IRLR7843TRPBF</t>
-  </si>
-  <si>
-    <t>TO252</t>
-  </si>
-  <si>
-    <t>N沟场效应管</t>
-  </si>
-  <si>
     <t>L1-2</t>
   </si>
   <si>
@@ -202,7 +202,7 @@
     <t>贴片发光二极管</t>
   </si>
   <si>
-    <t>U1</t>
+    <t>U7</t>
   </si>
   <si>
     <t>MIMXRT1064XVL_COREBOARD</t>
@@ -223,7 +223,7 @@
     <t>PH2.0接插件</t>
   </si>
   <si>
-    <t>R13 R16</t>
+    <t>R2-3</t>
   </si>
   <si>
     <t>R-SMD,100K</t>
@@ -235,37 +235,37 @@
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R8 R27</t>
+    <t>R12 R16</t>
   </si>
   <si>
     <t>R-SMD,100R</t>
   </si>
   <si>
-    <t>R1-7 R9-10 R17-22 R24-26</t>
+    <t>R1 R6 R8 R10-11 R13-15 R17-20 R25-26</t>
   </si>
   <si>
     <t>R-SMD,10K</t>
   </si>
   <si>
-    <t>R12</t>
+    <t>R9</t>
   </si>
   <si>
     <t>R-SMD,110K</t>
   </si>
   <si>
-    <t>R11 R14</t>
+    <t>R5 R7</t>
   </si>
   <si>
     <t>R-SMD,15K</t>
   </si>
   <si>
-    <t>R23</t>
+    <t>R21-24 R27-30</t>
   </si>
   <si>
     <t>R-SMD,1K</t>
   </si>
   <si>
-    <t>R15</t>
+    <t>R4</t>
   </si>
   <si>
     <t>RP-SMD,200K</t>
@@ -277,7 +277,7 @@
     <t>贴片电位器</t>
   </si>
   <si>
-    <t>U3-4 U6</t>
+    <t>U4-6</t>
   </si>
   <si>
     <t>RT9080-33GB</t>
@@ -286,7 +286,7 @@
     <t>SOT23-5L</t>
   </si>
   <si>
-    <t>LDO线性稳压器</t>
+    <t>输出类型:固定;输出极性:正;最大输入电压:5.5V;输出电压:3.3V;输出电流:500mA;电源纹波抑制比(PSRR):50dB@(10kHz);</t>
   </si>
   <si>
     <t>Q1</t>
@@ -301,7 +301,7 @@
     <t>高频放大-NPN型</t>
   </si>
   <si>
-    <t>S6</t>
+    <t>S1</t>
   </si>
   <si>
     <t>SSW-1P</t>
@@ -313,7 +313,7 @@
     <t>1路波动开关</t>
   </si>
   <si>
-    <t>S1</t>
+    <t>S2</t>
   </si>
   <si>
     <t>SW-2P</t>
@@ -325,7 +325,7 @@
     <t>2路编码开关</t>
   </si>
   <si>
-    <t>U2 U5</t>
+    <t>U2-3</t>
   </si>
   <si>
     <t>SY8303AIC</t>
@@ -337,7 +337,7 @@
     <t>同步DCDC降压芯片</t>
   </si>
   <si>
-    <t>S2-5</t>
+    <t>S3-6</t>
   </si>
   <si>
     <t>TSW_2P</t>
@@ -994,23 +994,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1540,8 +1543,8 @@
   <sheetPr/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1556,7 +1559,7 @@
     <col min="8" max="8" width="117.545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1566,555 +1569,609 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
         <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="3">
-        <v>18</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:8">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -2124,156 +2181,171 @@
       <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="2">
         <v>3</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
